--- a/14-dars/New Microsoft Excel Worksheet.xlsx
+++ b/14-dars/New Microsoft Excel Worksheet.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ЦЕНАСКИДКА" sheetId="1" r:id="rId1"/>
     <sheet name="ЦЕНА" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="topshiriq" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Mahsulot nomi</t>
   </si>
@@ -117,6 +117,103 @@
   </si>
   <si>
     <t>1,033,333</t>
+  </si>
+  <si>
+    <t>Familiya</t>
+  </si>
+  <si>
+    <t>Ism</t>
+  </si>
+  <si>
+    <t>Otasining ismi</t>
+  </si>
+  <si>
+    <t>F.I.O</t>
+  </si>
+  <si>
+    <t>Maxmudov</t>
+  </si>
+  <si>
+    <t>Valijon</t>
+  </si>
+  <si>
+    <t>Sharof o'g'li</t>
+  </si>
+  <si>
+    <t>Adhamova</t>
+  </si>
+  <si>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>Jo'rayevna</t>
+  </si>
+  <si>
+    <t>Fozilov</t>
+  </si>
+  <si>
+    <t>Botir</t>
+  </si>
+  <si>
+    <t>Qodirxon o'g'li</t>
+  </si>
+  <si>
+    <t>Turdiyeva</t>
+  </si>
+  <si>
+    <t>Nafisa</t>
+  </si>
+  <si>
+    <t>Umar qizi</t>
+  </si>
+  <si>
+    <t>Imronov</t>
+  </si>
+  <si>
+    <t>Saidolim</t>
+  </si>
+  <si>
+    <t>Botirxonovich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karimov </t>
+  </si>
+  <si>
+    <t>Humoyun</t>
+  </si>
+  <si>
+    <t>Qodirjo'rayevich</t>
+  </si>
+  <si>
+    <t>Abdullayev</t>
+  </si>
+  <si>
+    <t>Sanjar</t>
+  </si>
+  <si>
+    <t>Bahodir o'g'li</t>
+  </si>
+  <si>
+    <t>Pardayev</t>
+  </si>
+  <si>
+    <t>Islom</t>
+  </si>
+  <si>
+    <t>Mahmudovich</t>
+  </si>
+  <si>
+    <t>Zaripov</t>
+  </si>
+  <si>
+    <t>Musulmon</t>
+  </si>
+  <si>
+    <t>Saidakbar o'g'li</t>
+  </si>
+  <si>
+    <t>Alohida kataklarda joylashgan familiya, ism va otasini ismi ma'lumotlarini osonlik bilan bir katakga jamlang.
+Ushbu topshiriqni bajarishda сцепить funksiyalaridan foydalanishingiz mumkin 😉.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,31 +415,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -355,34 +565,7 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -551,6 +734,64 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -565,14 +806,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mahsulot nomi" dataDxfId="9"/>
-    <tableColumn id="2" name="Boshlang'ich narx" dataDxfId="8"/>
-    <tableColumn id="3" name="Chegirma darajasi % da" dataDxfId="7"/>
-    <tableColumn id="4" name="Chegirma soni" dataDxfId="6"/>
-    <tableColumn id="5" name="Yakuniy narx" dataDxfId="5"/>
+    <tableColumn id="1" name="Mahsulot nomi" dataDxfId="14"/>
+    <tableColumn id="2" name="Boshlang'ich narx" dataDxfId="13"/>
+    <tableColumn id="3" name="Chegirma darajasi % da" dataDxfId="12"/>
+    <tableColumn id="4" name="Chegirma soni" dataDxfId="11"/>
+    <tableColumn id="5" name="Yakuniy narx" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,10 +825,25 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Sana"/>
     <tableColumn id="2" name="Qiymat"/>
-    <tableColumn id="3" name="Diskont darajasi" dataDxfId="0"/>
+    <tableColumn id="3" name="Diskont darajasi" dataDxfId="9"/>
     <tableColumn id="4" name="Diskontlashgan qiymat"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Familiya" dataDxfId="3"/>
+    <tableColumn id="2" name="Ism" dataDxfId="2"/>
+    <tableColumn id="3" name="Otasining ismi" dataDxfId="1"/>
+    <tableColumn id="4" name="F.I.O" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(A2," ",B2," ",C2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -856,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +1123,7 @@
     <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1193,14 +1449,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f t="shared" ref="D2:D10" si="0">CONCATENATE(A2," ",B2," ",C2)</f>
+        <v>Maxmudov Valijon Sharof o'g'li</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:D14"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="130" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/14-dars/New Microsoft Excel Worksheet.xlsx
+++ b/14-dars/New Microsoft Excel Worksheet.xlsx
@@ -443,10 +443,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,30 +526,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -833,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Familiya" dataDxfId="3"/>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="18" t="str">
-        <f t="shared" ref="D2:D10" si="0">CONCATENATE(A2," ",B2," ",C2)</f>
+        <f t="shared" ref="D2" si="0">CONCATENATE(A2," ",B2," ",C2)</f>
         <v>Maxmudov Valijon Sharof o'g'li</v>
       </c>
     </row>
@@ -1501,7 +1501,10 @@
       <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18" t="str">
+        <f>CONCATENATE(A3," ",B3," ",C3)</f>
+        <v>Adhamova Saida Jo'rayevna</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1588,18 +1591,18 @@
       <c r="D10" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
